--- a/HomeTask001.xlsx
+++ b/HomeTask001.xlsx
@@ -375,19 +375,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Проверка</v>
+        <v>Автобусы</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Водители</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Серийный номер</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Гос. номер</v>
+      </c>
+      <c r="C2" t="str">
+        <v>ID_Водителя</v>
+      </c>
+      <c r="D2" t="str">
+        <v>ID_Кондуктора</v>
+      </c>
+      <c r="E2" t="str">
+        <v>ID_ТО</v>
+      </c>
+      <c r="G2" t="str">
+        <v>ID_Водителя</v>
+      </c>
+      <c r="H2" t="str">
+        <v>ФИО</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Стаж</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Открытые категории</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>0025</v>
+      </c>
+      <c r="B3" t="str">
+        <v>С568АО</v>
+      </c>
+      <c r="C3" t="str">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2</v>
+      </c>
+      <c r="E3" t="str">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Иванов Иван Иванович</v>
+      </c>
+      <c r="I3" t="str">
+        <v>7</v>
+      </c>
+      <c r="J3" t="str">
+        <v>В,С,D</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>0154</v>
+      </c>
+      <c r="B4" t="str">
+        <v>В233АМ</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2</v>
+      </c>
+      <c r="D4" t="str">
+        <v>4</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <v>2</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Петров Петр Петрович</v>
+      </c>
+      <c r="I4" t="str">
+        <v>15</v>
+      </c>
+      <c r="J4" t="str">
+        <v>С,D</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>0597</v>
+      </c>
+      <c r="B5" t="str">
+        <v>С045РО</v>
+      </c>
+      <c r="C5" t="str">
+        <v>3</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2</v>
+      </c>
+      <c r="E5" t="str">
+        <v>3</v>
+      </c>
+      <c r="G5" t="str">
+        <v>3</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Семенов Семен Семенович</v>
+      </c>
+      <c r="I5" t="str">
+        <v>10</v>
+      </c>
+      <c r="J5" t="str">
+        <v>С,D</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>0799</v>
+      </c>
+      <c r="B6" t="str">
+        <v>О002ОА</v>
+      </c>
+      <c r="C6" t="str">
+        <v>4</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <v>4</v>
+      </c>
+      <c r="G6" t="str">
+        <v>4</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Карлов Карл Карлович</v>
+      </c>
+      <c r="I6" t="str">
+        <v>20</v>
+      </c>
+      <c r="J6" t="str">
+        <v>В,С,D</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="G8" t="str">
+        <v>Кондукторы</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Прохождение ТО</v>
+      </c>
+      <c r="G9" t="str">
+        <v>ID_Кондуктора</v>
+      </c>
+      <c r="H9" t="str">
+        <v>ФИО</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Опыт работы</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>ID_ТО</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Дата прохождения</v>
+      </c>
+      <c r="C10" t="str">
+        <v>ID_работ</v>
+      </c>
+      <c r="G10" t="str">
+        <v>1</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Ильин Илья Ильич</v>
+      </c>
+      <c r="I10" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>04.10.2022</v>
+      </c>
+      <c r="C11" t="str">
+        <v>3</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Михайлов Михаил Михайлович</v>
+      </c>
+      <c r="I11" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2</v>
+      </c>
+      <c r="B12" t="str">
+        <v>21.12.2022</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <v>3</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Марков Марк Маркович</v>
+      </c>
+      <c r="I12" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>3</v>
+      </c>
+      <c r="B13" t="str">
+        <v>08.11.2012</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <v>4</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Филипов Филип Филипович</v>
+      </c>
+      <c r="I13" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>4</v>
+      </c>
+      <c r="B14" t="str">
+        <v>15.02.2023</v>
+      </c>
+      <c r="C14" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="G15" t="str">
+        <v>Виды работ на ТО</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="G16" t="str">
+        <v>ID_работ</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Виды работ</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="G17" t="str">
+        <v>1</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Регулировочные, Смазочные</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="G18" t="str">
+        <v>2</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Регулировочные, Смазочные, Контрольно-диагностические</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="G19" t="str">
+        <v>3</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Комплексные работы</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J19"/>
   </ignoredErrors>
 </worksheet>
 </file>